--- a/resources/react-app/public/upload-file/template/Envio de pedidos Amazon.xlsx
+++ b/resources/react-app/public/upload-file/template/Envio de pedidos Amazon.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LowCost\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LowCost\Projetos\B1Sistema-PDOCRUD\resources\react-app\public\upload-file\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595CE702-54E5-4D73-BF42-1829F4E7712C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E19B63-EA1D-4D6D-950F-6DF490B63CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E1F21D0F-0A8A-4EDC-81A7-3834B3EE663E}"/>
+    <workbookView xWindow="-20610" yWindow="1710" windowWidth="20730" windowHeight="11160" xr2:uid="{E1F21D0F-0A8A-4EDC-81A7-3834B3EE663E}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>ID da empresa</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>Verificar no campo sales-channel e escolher na tabela ID do país</t>
+  </si>
+  <si>
+    <t>Amazon-US</t>
   </si>
 </sst>
 </file>
@@ -161,33 +164,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -553,24 +551,24 @@
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="L2" s="5" t="s">
+      <c r="J2" s="8"/>
+      <c r="L2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="5"/>
-      <c r="O2" s="6" t="s">
+      <c r="M2" s="8"/>
+      <c r="O2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="I3" s="2">
@@ -585,129 +583,122 @@
       <c r="M3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7" t="s">
+      <c r="O3" s="5"/>
+      <c r="P3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="R3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="S3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="T3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="U3" s="9" t="s">
+      <c r="U3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="V3" s="8" t="s">
+      <c r="V3" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="12"/>
-      <c r="I4" s="14">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="I4" s="2">
         <v>1</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="2">
         <v>2</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="M4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="17" t="s">
+      <c r="O4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="16" t="s">
+      <c r="P4" s="12"/>
+      <c r="Q4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="R4" s="15" t="s">
+      <c r="R4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="S4" s="16" t="s">
+      <c r="S4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="T4" s="16" t="s">
+      <c r="T4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="U4" s="16" t="s">
+      <c r="U4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="V4" s="16" t="s">
+      <c r="V4" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A5" s="11"/>
       <c r="L5" s="2">
         <v>3</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="17"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="L6" s="2">
         <v>4</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O6" s="17"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
+        <v>21</v>
+      </c>
+      <c r="O6" s="11"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B7" s="11"/>
       <c r="L7" s="2">
         <v>5</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="17"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="O8" s="17"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/resources/react-app/public/upload-file/template/Envio de pedidos Amazon.xlsx
+++ b/resources/react-app/public/upload-file/template/Envio de pedidos Amazon.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LowCost\Projetos\B1Sistema-PDOCRUD\resources\react-app\public\upload-file\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LowCost\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E19B63-EA1D-4D6D-950F-6DF490B63CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDFC8A9-9ED3-4ECB-B6FC-F210067E20C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="1710" windowWidth="20730" windowHeight="11160" xr2:uid="{E1F21D0F-0A8A-4EDC-81A7-3834B3EE663E}"/>
+    <workbookView xWindow="-20610" yWindow="1710" windowWidth="20730" windowHeight="11160" xr2:uid="{D039964C-2F3D-44AE-AD9B-0F008C24AADC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Dados do pedido" sheetId="1" r:id="rId1"/>
+    <sheet name="Dados a preencher" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,81 +37,174 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+  <si>
+    <t>order-id</t>
+  </si>
+  <si>
+    <t>order-item-id</t>
+  </si>
+  <si>
+    <t>purchase-date</t>
+  </si>
+  <si>
+    <t>payments-date</t>
+  </si>
+  <si>
+    <t>buyer-email</t>
+  </si>
+  <si>
+    <t>buyer-name</t>
+  </si>
+  <si>
+    <t>payment-method-details</t>
+  </si>
+  <si>
+    <t>cpf</t>
+  </si>
+  <si>
+    <t>ship-county</t>
+  </si>
+  <si>
+    <t>buyer-phone-number</t>
+  </si>
+  <si>
+    <t>sku</t>
+  </si>
+  <si>
+    <t>product-name</t>
+  </si>
+  <si>
+    <t>quantity-purchased</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>item-price</t>
+  </si>
+  <si>
+    <t>item-tax</t>
+  </si>
+  <si>
+    <t>shipping-price</t>
+  </si>
+  <si>
+    <t>shipping-tax</t>
+  </si>
+  <si>
+    <t>ship-service-level</t>
+  </si>
+  <si>
+    <t>recipient-name</t>
+  </si>
+  <si>
+    <t>ship-address-1</t>
+  </si>
+  <si>
+    <t>ship-address-2</t>
+  </si>
+  <si>
+    <t>ship-address-3</t>
+  </si>
+  <si>
+    <t>ship-city</t>
+  </si>
+  <si>
+    <t>ship-state</t>
+  </si>
+  <si>
+    <t>ship-postal-code</t>
+  </si>
+  <si>
+    <t>ship-country</t>
+  </si>
+  <si>
+    <t>ship-phone-number</t>
+  </si>
+  <si>
+    <t>item-promotion-discount</t>
+  </si>
+  <si>
+    <t>item-promotion-id</t>
+  </si>
+  <si>
+    <t>ship-promotion-discount</t>
+  </si>
+  <si>
+    <t>ship-promotion-id</t>
+  </si>
+  <si>
+    <t>delivery-start-date</t>
+  </si>
+  <si>
+    <t>delivery-end-date</t>
+  </si>
+  <si>
+    <t>delivery-time-zone</t>
+  </si>
+  <si>
+    <t>delivery-Instructions</t>
+  </si>
+  <si>
+    <t>sales-channel</t>
+  </si>
+  <si>
+    <t>order-channel</t>
+  </si>
+  <si>
+    <t>order-channel-instance</t>
+  </si>
+  <si>
+    <t>external-order-id</t>
+  </si>
+  <si>
+    <t>earliest-ship-date</t>
+  </si>
+  <si>
+    <t>latest-ship-date</t>
+  </si>
+  <si>
+    <t>earliest-delivery-date</t>
+  </si>
+  <si>
+    <t>latest-delivery-date</t>
+  </si>
+  <si>
+    <t>item-extensions-data</t>
+  </si>
+  <si>
+    <t>is-business-order</t>
+  </si>
+  <si>
+    <t>purchase-order-number</t>
+  </si>
+  <si>
+    <t>price-designation</t>
+  </si>
+  <si>
+    <t>customized-url</t>
+  </si>
+  <si>
+    <t>customized-page</t>
+  </si>
+  <si>
+    <t>ID da Empresa</t>
+  </si>
   <si>
     <t>ID da empresa</t>
   </si>
   <si>
-    <t>ID do país</t>
-  </si>
-  <si>
-    <t>Nº Amazon</t>
-  </si>
-  <si>
-    <t>Data do pedido</t>
-  </si>
-  <si>
-    <t>Data prevista</t>
-  </si>
-  <si>
-    <t>ISBN</t>
-  </si>
-  <si>
-    <t>Valor</t>
-  </si>
-  <si>
     <t>Livraria Seline</t>
   </si>
   <si>
     <t>B1 Livraria</t>
-  </si>
-  <si>
-    <t>Amazon-BR</t>
-  </si>
-  <si>
-    <t>Amazon-CA</t>
-  </si>
-  <si>
-    <t>Amazon-UK</t>
-  </si>
-  <si>
-    <t>Seline-BR</t>
-  </si>
-  <si>
-    <t>Campos do arquivo</t>
-  </si>
-  <si>
-    <t>Amazon</t>
-  </si>
-  <si>
-    <t>order-id</t>
-  </si>
-  <si>
-    <t>sku (remover o prefixo "SEL_")</t>
-  </si>
-  <si>
-    <t>item-price - item-promotion-discount (sepação de centavos com . e não com ,)</t>
-  </si>
-  <si>
-    <t>latest-delivery-date (do jeito que vem no relatório da Amazon)</t>
-  </si>
-  <si>
-    <t>payments-date (formato ano-mês-dia)</t>
-  </si>
-  <si>
-    <t>Verificar no campo sales-channel e escolher na tabela ID do país</t>
-  </si>
-  <si>
-    <t>Amazon-US</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="00000"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -120,7 +214,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -145,12 +239,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -164,29 +252,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -501,220 +572,212 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B744464E-4F24-4F6D-B7FD-940BCDB683A5}">
-  <dimension ref="A1:V8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60996CAE-603F-40A8-8C6D-DB0E1935F99C}">
+  <dimension ref="A1:AY1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:51" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80AF8C1F-2581-4AAE-9DFF-2BD1743E0A6F}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" style="4"/>
-    <col min="8" max="8" width="1.7265625" customWidth="1"/>
-    <col min="10" max="10" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="1.7265625" customWidth="1"/>
-    <col min="13" max="13" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.81640625" customWidth="1"/>
-    <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.453125" customWidth="1"/>
-    <col min="18" max="18" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="18.1796875" customWidth="1"/>
-    <col min="22" max="22" width="31.6328125" customWidth="1"/>
+    <col min="2" max="2" width="12.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="I2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="8"/>
-      <c r="L2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="8"/>
-      <c r="O2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="2">
-        <v>1</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="I4" s="2">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" s="2">
-        <v>2</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="R4" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="S4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="T4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="U4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="V4" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="L5" s="2">
-        <v>3</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O5" s="11"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="L6" s="2">
-        <v>4</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O6" s="11"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="L7" s="2">
-        <v>5</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O7" s="11"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="O8" s="11"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
+      <c r="B3" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="O2:V2"/>
-    <mergeCell ref="Q4:Q8"/>
-    <mergeCell ref="O4:O8"/>
-    <mergeCell ref="P4:P8"/>
-    <mergeCell ref="R4:R8"/>
-    <mergeCell ref="S4:S8"/>
-    <mergeCell ref="T4:T8"/>
-    <mergeCell ref="U4:U8"/>
-    <mergeCell ref="V4:V8"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>